--- a/mhc1.xlsx
+++ b/mhc1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/mollab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5540499A-597E-42EC-8EE0-BDC3B7AD893B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF736C0-8C96-4444-92B0-2C0AE6BD651C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>MHC-2x</t>
   </si>
@@ -66,9 +66,6 @@
     <t>MHC1 W2</t>
   </si>
   <si>
-    <t>100% W2</t>
-  </si>
-  <si>
     <t>MHC1</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>Sample name</t>
-  </si>
-  <si>
-    <t>100% W0</t>
   </si>
   <si>
     <t>MHC1 W0</t>
@@ -507,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849126A-C853-4236-9821-86F679F10610}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -520,73 +514,70 @@
     <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="T1" s="4"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>29.131275177001953</v>
@@ -629,47 +620,40 @@
         <f t="shared" ref="N2:N7" si="3">(2^-L2)</f>
         <v>3.8095420077170381</v>
       </c>
-      <c r="O2" s="3">
-        <f>SUM(N2,N4,N6)</f>
-        <v>10.7522466778384</v>
-      </c>
-      <c r="P2" s="2">
-        <f>SUM(N2/O2)</f>
-        <v>0.35430195398780573</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>SUM(N4/O2)</f>
-        <v>6.0751538686626581E-3</v>
-      </c>
-      <c r="R2" s="2">
-        <f>N6/O2</f>
-        <v>0.63962289214353152</v>
+      <c r="O2" s="1">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>64</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="3">
-        <f t="shared" ref="U2:U7" si="4">F2</f>
+        <v>9</v>
+      </c>
+      <c r="T2" s="3">
+        <f>F2</f>
         <v>22.044302622477215</v>
       </c>
-      <c r="V2" s="4">
-        <f t="shared" ref="V2:V7" si="5">STDEV(C2:E2)</f>
+      <c r="U2" s="4">
+        <f>STDEV(C2:E2)</f>
         <v>6.1560206175303955</v>
       </c>
-      <c r="W2" s="2">
-        <f t="shared" ref="W2:W7" si="6">V2/U2</f>
+      <c r="V2" s="2">
+        <f t="shared" ref="V2:V7" si="4">U2/T2</f>
         <v>0.27925676411525402</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>17.703769683837891</v>
@@ -705,33 +689,33 @@
         <v>-5.350001335144043</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M7" si="7">AVERAGE(F3-K3)</f>
+        <f t="shared" ref="M3:M7" si="5">AVERAGE(F3-K3)</f>
         <v>-5.350001335144043</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="3"/>
         <v>40.785977819636301</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="3">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3">
+        <f>F3</f>
+        <v>17.29454517364502</v>
+      </c>
+      <c r="U3" s="1">
+        <f>STDEV(C3:E3)</f>
+        <v>0.57873085237024513</v>
+      </c>
+      <c r="V3" s="2">
         <f t="shared" si="4"/>
-        <v>17.29454517364502</v>
-      </c>
-      <c r="V3" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57873085237024513</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="6"/>
         <v>3.3463201637251909E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -772,33 +756,33 @@
         <v>3.9362970987955741</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.9362970987955741</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="3"/>
         <v>6.532155300168517E-2</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="S4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="3">
+      <c r="T4" s="3">
+        <f>F4</f>
+        <v>27.91021728515625</v>
+      </c>
+      <c r="U4" s="1">
+        <f>STDEV(C4:E4)</f>
+        <v>7.9819819211906085</v>
+      </c>
+      <c r="V4" s="2">
         <f t="shared" si="4"/>
-        <v>27.91021728515625</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="5"/>
-        <v>7.9819819211906085</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="6"/>
         <v>0.28598781011410257</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -839,7 +823,7 @@
         <v>-6.7516857782999669</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.7516857782999669</v>
       </c>
       <c r="N5" s="3">
@@ -847,37 +831,34 @@
         <v>107.76058504713625</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="3">
+      <c r="T5" s="3">
+        <f>F5</f>
+        <v>15.892860730489096</v>
+      </c>
+      <c r="U5" s="1">
+        <f>STDEV(C5:E5)</f>
+        <v>0.70247950903487522</v>
+      </c>
+      <c r="V5" s="2">
         <f t="shared" si="4"/>
-        <v>15.892860730489096</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.70247950903487522</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="6"/>
         <v>4.4200947893995465E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -918,49 +899,42 @@
         <v>-2.7818597157796212</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.7818597157796212</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>6.8773831171196758</v>
       </c>
-      <c r="O6" s="3">
-        <f>SUM(N3,N5,N7)</f>
-        <v>149.23032361780935</v>
-      </c>
-      <c r="P6" s="2">
-        <f>N3/O6</f>
-        <v>0.27330891490989734</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>N5/O6</f>
-        <v>0.72210916946826187</v>
-      </c>
-      <c r="R6" s="2">
-        <f>N7/O6</f>
-        <v>4.5819156218407609E-3</v>
+      <c r="O6" s="1">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="T6" s="3">
+        <f>F6</f>
+        <v>21.192060470581055</v>
+      </c>
+      <c r="U6" s="1">
+        <f>STDEV(C6:E6)</f>
+        <v>5.8188276228928387E-2</v>
+      </c>
+      <c r="V6" s="2">
         <f t="shared" si="4"/>
-        <v>21.192060470581055</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="5"/>
-        <v>5.8188276228928387E-2</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="6"/>
         <v>2.7457583140490611E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1001,51 +975,51 @@
         <v>0.54843648274739465</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.54843648274739465</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0.6837607510367929</v>
       </c>
+      <c r="R7" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="S7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="T7" s="3">
+        <f>F7</f>
+        <v>23.192982991536457</v>
+      </c>
+      <c r="U7" s="1">
+        <f>STDEV(C7:E7)</f>
+        <v>1.1048148358644256</v>
+      </c>
+      <c r="V7" s="2">
         <f t="shared" si="4"/>
-        <v>23.192982991536457</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1048148358644256</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="6"/>
         <v>4.7635736906614934E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S10" s="4"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="S12" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R10" s="4"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="R12" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/mhc1.xlsx
+++ b/mhc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/mollab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF736C0-8C96-4444-92B0-2C0AE6BD651C}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75039437-B702-4B47-9217-984997BDCB5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13995" windowHeight="14835" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="MHC" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>MHC-2x</t>
   </si>
@@ -69,9 +69,6 @@
     <t>MHC1</t>
   </si>
   <si>
-    <t>ΔΔCt</t>
-  </si>
-  <si>
     <t>ΔCT</t>
   </si>
   <si>
@@ -106,14 +103,24 @@
   </si>
   <si>
     <t>MHC2x W0</t>
+  </si>
+  <si>
+    <t>100% W0</t>
+  </si>
+  <si>
+    <t>100% W2</t>
+  </si>
+  <si>
+    <t>2-∆∆Ct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -151,12 +158,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -181,6 +194,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849126A-C853-4236-9821-86F679F10610}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -515,64 +530,70 @@
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11.42578125" style="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -613,42 +634,67 @@
         <v>-1.9296175638834612</v>
       </c>
       <c r="M2" s="3">
-        <f>AVERAGE(F2-K2)</f>
-        <v>-1.9296175638834612</v>
+        <f t="shared" ref="M2:M7" si="3">(2^-L2)</f>
+        <v>3.8095420077170381</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N7" si="3">(2^-L2)</f>
-        <v>3.8095420077170381</v>
-      </c>
-      <c r="O2" s="1">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>64</v>
-      </c>
-      <c r="R2" s="4" t="s">
+        <f>SUM(M2,M4,M6)</f>
+        <v>10.7522466778384</v>
+      </c>
+      <c r="O2" s="2">
+        <f>SUM(M2/N2)</f>
+        <v>0.35430195398780573</v>
+      </c>
+      <c r="P2" s="2">
+        <f>SUM(M4/N2)</f>
+        <v>6.0751538686626581E-3</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>M6/N2</f>
+        <v>0.63962289214353152</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="8">
+        <f>O2*100</f>
+        <v>35.430195398780576</v>
+      </c>
+      <c r="T2" s="8">
+        <f>O6*100</f>
+        <v>27.330891490989735</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3">
-        <f>F2</f>
+      <c r="X2" s="3">
+        <f t="shared" ref="X2:X7" si="4">F2</f>
         <v>22.044302622477215</v>
       </c>
-      <c r="U2" s="4">
-        <f>STDEV(C2:E2)</f>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y7" si="5">STDEV(C2:E2)</f>
         <v>6.1560206175303955</v>
       </c>
-      <c r="V2" s="2">
-        <f t="shared" ref="V2:V7" si="4">U2/T2</f>
+      <c r="Z2" s="2">
+        <f t="shared" ref="Z2:Z7" si="6">Y2/X2</f>
         <v>0.27925676411525402</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>Z2*100</f>
+        <v>27.925676411525401</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>Z3*100</f>
+        <v>3.3463201637251907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -689,33 +735,51 @@
         <v>-5.350001335144043</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M7" si="5">AVERAGE(F3-K3)</f>
-        <v>-5.350001335144043</v>
-      </c>
-      <c r="N3" s="3">
         <f t="shared" si="3"/>
         <v>40.785977819636301</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="8">
+        <f>P2*100</f>
+        <v>0.60751538686626583</v>
+      </c>
+      <c r="T3" s="8">
+        <f>P6*100</f>
+        <v>72.210916946826188</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="3">
-        <f>F3</f>
+      <c r="X3" s="3">
+        <f t="shared" si="4"/>
         <v>17.29454517364502</v>
       </c>
-      <c r="U3" s="1">
-        <f>STDEV(C3:E3)</f>
+      <c r="Y3" s="1">
+        <f t="shared" si="5"/>
         <v>0.57873085237024513</v>
       </c>
-      <c r="V3" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z3" s="2">
+        <f t="shared" si="6"/>
         <v>3.3463201637251909E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="8">
+        <f>Z4*100</f>
+        <v>28.598781011410257</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>Z5*100</f>
+        <v>4.4200947893995464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -756,33 +820,51 @@
         <v>3.9362970987955741</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="5"/>
-        <v>3.9362970987955741</v>
-      </c>
-      <c r="N4" s="3">
         <f t="shared" si="3"/>
         <v>6.532155300168517E-2</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <f>Q2*100</f>
+        <v>63.962289214353149</v>
+      </c>
+      <c r="T4" s="8">
+        <f>Q6*100</f>
+        <v>4.6085694585325685</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="3">
-        <f>F4</f>
+      <c r="X4" s="3">
+        <f t="shared" si="4"/>
         <v>27.91021728515625</v>
       </c>
-      <c r="U4" s="1">
-        <f>STDEV(C4:E4)</f>
+      <c r="Y4" s="1">
+        <f t="shared" si="5"/>
         <v>7.9819819211906085</v>
       </c>
-      <c r="V4" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z4" s="2">
+        <f t="shared" si="6"/>
         <v>0.28598781011410257</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <f>Z6*100</f>
+        <v>0.2745758314049061</v>
+      </c>
+      <c r="AC4" s="8">
+        <f>Z7*100</f>
+        <v>4.7635736906614934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -823,13 +905,12 @@
         <v>-6.7516857782999669</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="5"/>
-        <v>-6.7516857782999669</v>
-      </c>
-      <c r="N5" s="3">
         <f t="shared" si="3"/>
         <v>107.76058504713625</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
@@ -839,26 +920,26 @@
       <c r="Q5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="3">
-        <f>F5</f>
+      <c r="X5" s="3">
+        <f t="shared" si="4"/>
         <v>15.892860730489096</v>
       </c>
-      <c r="U5" s="1">
-        <f>STDEV(C5:E5)</f>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
         <v>0.70247950903487522</v>
       </c>
-      <c r="V5" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z5" s="2">
+        <f t="shared" si="6"/>
         <v>4.4200947893995465E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -899,42 +980,45 @@
         <v>-2.7818597157796212</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.7818597157796212</v>
-      </c>
-      <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>6.8773831171196758</v>
       </c>
-      <c r="O6" s="1">
-        <v>27</v>
-      </c>
-      <c r="P6" s="1">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="N6" s="3">
+        <f>SUM(M3,M5,M7)</f>
+        <v>149.23032361780935</v>
+      </c>
+      <c r="O6" s="2">
+        <f>M3/N6</f>
+        <v>0.27330891490989734</v>
+      </c>
+      <c r="P6" s="2">
+        <f>M5/N6</f>
+        <v>0.72210916946826187</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>M6/N6</f>
+        <v>4.6085694585325687E-2</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <f>F6</f>
+      <c r="X6" s="3">
+        <f t="shared" si="4"/>
         <v>21.192060470581055</v>
       </c>
-      <c r="U6" s="1">
-        <f>STDEV(C6:E6)</f>
+      <c r="Y6" s="1">
+        <f t="shared" si="5"/>
         <v>5.8188276228928387E-2</v>
       </c>
-      <c r="V6" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z6" s="2">
+        <f t="shared" si="6"/>
         <v>2.7457583140490611E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -975,51 +1059,51 @@
         <v>0.54843648274739465</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.54843648274739465</v>
-      </c>
-      <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0.6837607510367929</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="V7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
-        <f>F7</f>
+      <c r="X7" s="3">
+        <f t="shared" si="4"/>
         <v>23.192982991536457</v>
       </c>
-      <c r="U7" s="1">
-        <f>STDEV(C7:E7)</f>
+      <c r="Y7" s="1">
+        <f t="shared" si="5"/>
         <v>1.1048148358644256</v>
       </c>
-      <c r="V7" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z7" s="2">
+        <f t="shared" si="6"/>
         <v>4.7635736906614934E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="R10" s="4"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="R12" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="V12" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/mhc1.xlsx
+++ b/mhc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95839bcc6a87b97e/Dokumenter/Leistad Fysioterapi og Trening AS/Master 23-25/IDR4000/Arbeidskrav/mollab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75039437-B702-4B47-9217-984997BDCB5C}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{52AF16B0-21C7-4E61-B294-BCD40749DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99179CF-3245-4BDC-9CCF-318E224E2C7A}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13995" windowHeight="14835" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80DC07D6-E443-4D60-9899-02315561A0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="MHC" sheetId="2" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849126A-C853-4236-9821-86F679F10610}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -686,12 +686,12 @@
         <v>9</v>
       </c>
       <c r="AB2" s="8">
-        <f>Z2*100</f>
-        <v>27.925676411525401</v>
+        <f>X2</f>
+        <v>22.044302622477215</v>
       </c>
       <c r="AC2" s="8">
-        <f>Z3*100</f>
-        <v>3.3463201637251907</v>
+        <f>X3</f>
+        <v>17.29454517364502</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
@@ -771,12 +771,12 @@
         <v>5</v>
       </c>
       <c r="AB3" s="8">
-        <f>Z4*100</f>
-        <v>28.598781011410257</v>
+        <f>X4</f>
+        <v>27.91021728515625</v>
       </c>
       <c r="AC3" s="8">
-        <f>Z5*100</f>
-        <v>4.4200947893995464</v>
+        <f>X5</f>
+        <v>15.892860730489096</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
@@ -856,12 +856,12 @@
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f>Z6*100</f>
-        <v>0.2745758314049061</v>
+        <f>X6</f>
+        <v>21.192060470581055</v>
       </c>
       <c r="AC4" s="8">
-        <f>Z7*100</f>
-        <v>4.7635736906614934</v>
+        <f>X7</f>
+        <v>23.192982991536457</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
